--- a/Unit Doc/3.1P-resources/3.1P-Worklog_Template.xlsx
+++ b/Unit Doc/3.1P-resources/3.1P-Worklog_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyoscar/Desktop/SIT723 - Research Project A/Unit Doc/3.1P-resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71CAD5B-058C-9A48-92AF-059913F80B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B529F4-76A4-954D-ADD5-7CFFB9718556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="4980" windowWidth="24540" windowHeight="26900" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="13140" yWindow="500" windowWidth="24540" windowHeight="26900" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,6 +1036,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F91A6F9DB61C7A45BED08E943CE76CDB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8e7f53c33be68033672446c1e6efa23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01b46ff2-420f-42c8-8583-78d94109e361" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfdeac3786ae83719fa373dd0d32d08c" ns2:_="">
     <xsd:import namespace="01b46ff2-420f-42c8-8583-78d94109e361"/>
@@ -1167,22 +1182,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FB1FFC3-B1E9-4426-A852-9D9BC12D3CD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1198,21 +1215,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>